--- a/codigo/repaso_matricial/general_2D/portico_UribeEscamilla_11_23.xlsx
+++ b/codigo/repaso_matricial/general_2D/portico_UribeEscamilla_11_23.xlsx
@@ -14,7 +14,8 @@
     <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="varios" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="config" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="varios" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="ang1" vbProcedure="false">varios!$B$1</definedName>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -258,6 +259,84 @@
   </si>
   <si>
     <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_def</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">esc_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">faxial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">esc_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">esc_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">M</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">U_FUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
   </si>
   <si>
     <t xml:space="preserve">ang1 = </t>
@@ -297,7 +376,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -332,6 +411,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,6 +493,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,9 +524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -444,7 +536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -477,9 +569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -489,7 +581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -527,9 +619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>689400</xdr:colOff>
+      <xdr:colOff>689040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -539,7 +631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9958680" cy="9520200"/>
+          <a:ext cx="9970920" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,9 +664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>689400</xdr:colOff>
+      <xdr:colOff>689040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -584,7 +676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9958680" cy="9520200"/>
+          <a:ext cx="9970920" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,9 +714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -634,7 +726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,9 +759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -679,7 +771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -712,9 +804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -724,7 +816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,9 +849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -769,7 +861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,9 +899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -819,7 +911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,9 +944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
+      <xdr:colOff>289080</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -864,7 +956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9977760" cy="9520200"/>
+          <a:ext cx="9992520" cy="9519840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,13 +988,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1091,7 +1183,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.92"/>
   </cols>
@@ -1188,7 +1280,7 @@
       <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.01"/>
   </cols>
@@ -1300,7 +1392,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1399,7 +1491,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1445,10 +1537,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -1523,29 +1615,109 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="n">
         <f aca="false">ATAN2(4,2)</f>
         <v>0.463647609000806</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,32 +1730,32 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/repaso_matricial/general_2D/portico_UribeEscamilla_11_23.xlsx
+++ b/codigo/repaso_matricial/general_2D/portico_UribeEscamilla_11_23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -99,6 +99,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">grados</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -199,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -234,6 +247,9 @@
     <t xml:space="preserve">desplazamiento</t>
   </si>
   <si>
+    <t xml:space="preserve">rotación</t>
+  </si>
+  <si>
     <t xml:space="preserve">b1</t>
   </si>
   <si>
@@ -270,61 +286,13 @@
     <t xml:space="preserve">esc_def</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">esc_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">faxial</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">esc_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">V</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">esc_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">M</t>
-    </r>
+    <t xml:space="preserve">esc_faxial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_M</t>
   </si>
   <si>
     <t xml:space="preserve">U_FUER</t>
@@ -376,7 +344,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,11 +379,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,11 +456,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,9 +483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -536,7 +495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -569,9 +528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -581,7 +540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,9 +578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>689040</xdr:colOff>
+      <xdr:colOff>688680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -631,7 +590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9970920" cy="9519840"/>
+          <a:ext cx="9983160" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,9 +623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>689040</xdr:colOff>
+      <xdr:colOff>688680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -676,7 +635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9970920" cy="9519840"/>
+          <a:ext cx="9983160" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,9 +673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -726,7 +685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,9 +718,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -771,7 +730,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,9 +763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -816,7 +775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,9 +808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -861,7 +820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,9 +858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -911,7 +870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,9 +903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>289080</xdr:colOff>
+      <xdr:colOff>288720</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -956,7 +915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="9992520" cy="9519840"/>
+          <a:ext cx="10007640" cy="9519480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,13 +947,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1183,7 +1142,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.92"/>
   </cols>
@@ -1274,18 +1233,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,6 +1253,9 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,8 +1269,11 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
@@ -1319,8 +1284,11 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1328,6 +1296,9 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1342,6 +1313,9 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1354,8 +1328,11 @@
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
@@ -1363,6 +1340,9 @@
         <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1392,23 +1372,23 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -1491,7 +1471,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1501,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,23 +1520,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -1617,47 +1597,47 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>23</v>
+      <c r="A3" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
+      <c r="A4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.3</v>
@@ -1665,18 +1645,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1701,23 +1681,23 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="n">
         <f aca="false">ATAN2(4,2)</f>
         <v>0.463647609000806</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,32 +1710,32 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
